--- a/medicine/Enfance/Herboné/Herboné.xlsx
+++ b/medicine/Enfance/Herboné/Herboné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herbon%C3%A9</t>
+          <t>Herboné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herboné, de son vrai nom René Bonnet, est un dessinateur et scénariste de bande dessinée français, né à Paris le 20 septembre 1905 et décédé le 1er août 1998 à Vincennes.
 Il est le créateur de la série Fripounet et Marisette, publiée par les éditions Fleurus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herbon%C3%A9</t>
+          <t>Herboné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille d'origine berrichonne, René Bonnet a vécu principalement à Paris. Enfant, il passait ses vacances dans le Cher, chez ses grands-parents, notamment une longue période durant la Première Guerre mondiale en 1917-1918, ce qui a forgé ses références au monde rural exploitées ensuite dans Fripounet.
 Après le certificat d'études, il étudie pendant trois ans à l'école d'arts appliqués Bernard Palissy, où il apprend le dessin, le modelage, la décoration, la peinture sur faïence… Il exerce une première activité comme céramiste, puis au retour du service militaire, travaille dans le domaine de la publicité, dessinant pour les catalogues de grands magasins parisiens, jusqu'en 1940.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herbon%C3%A9</t>
+          <t>Herboné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1986 : Prix RTL de la meilleure réédition BD pour Fripounet et Marisette dans la collection Archives Fleurus[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1986 : Prix RTL de la meilleure réédition BD pour Fripounet et Marisette dans la collection Archives Fleurus.</t>
         </is>
       </c>
     </row>
